--- a/Motor_Characteristic.xlsx
+++ b/Motor_Characteristic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachw\OneDrive\Documents\University Documents\EGB456\Electric_Motor_Embeded_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB85FE0-648A-4216-9CB0-B52FE6D86A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E882C5-996A-47FF-B459-C2187EF1BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5220" windowWidth="29040" windowHeight="15840" xr2:uid="{9BD77BA9-FC6E-477D-BE2A-6D149F737EDE}"/>
+    <workbookView xWindow="3120" yWindow="3180" windowWidth="12150" windowHeight="11385" xr2:uid="{9BD77BA9-FC6E-477D-BE2A-6D149F737EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Duty Value %</t>
   </si>
@@ -94,6 +94,2216 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PWM Duty Cycle vs RPM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8269295285457733E-2"/>
+          <c:y val="9.0496472277772994E-2"/>
+          <c:w val="0.87192285174879458"/>
+          <c:h val="0.79003656062110006"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12029969937968281"/>
+                  <c:y val="0.32327983942893623"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                      <a:t>y = -1.0959x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2400" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                      <a:t> + 241.66x - 1752</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="2400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3859-4B37-A41E-0884327B3493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1189858687"/>
+        <c:axId val="1189855807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1189858687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duty Cycle %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189855807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1189855807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189858687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duty Value %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32159420835297464"/>
+                  <c:y val="8.063337686034068E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 6E-07x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t> + 0.0003x + 13.686</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28FB-4C9A-8F8A-9B06EC825A84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="151907327"/>
+        <c:axId val="151907807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="151907327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151907807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="151907807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151907327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB01817-DF2C-A461-B8A3-694F4D1306CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D4A713-4F82-B07E-C80D-45E5CF646326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658FD668-5A7A-4B95-AF5D-38F06B23B616}">
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +2722,96 @@
         <v>11473</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>933</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2266</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4080</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6206</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8033</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>9073</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>9653</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10260</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>11220</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>11473</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>